--- a/Stocks/TV18BRDCST.xlsx
+++ b/Stocks/TV18BRDCST.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>41.716666666666669</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>39.46758358493274</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>39.224507422309308</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>30.120552446117628</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.15000000000000568</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>1.2000000000000028</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.12500000000000444</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>39.181475814277768</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>0.52360169306300719</v>
       </c>
       <c r="Y67">
         <v>0.66862639497902454</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>36.9</v>
+      </c>
+      <c r="D83">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E83">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="F83">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>36.866666666666667</v>
+      </c>
+      <c r="H83">
+        <v>36.614874027256036</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>36.921157349760939</v>
+      </c>
+      <c r="K83">
+        <v>36.042264653752774</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>61.030134547117711</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>0.75</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>36.739150685926091</v>
+      </c>
+      <c r="W83">
+        <v>37.35933747862407</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-0.62018679269797872</v>
+      </c>
+      <c r="Y83">
+        <v>-0.60092029523127599</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>36.85</v>
+      </c>
+      <c r="D84">
+        <v>36.85</v>
+      </c>
+      <c r="E84">
+        <v>36</v>
+      </c>
+      <c r="F84">
+        <v>36.1</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>36.316666666666663</v>
+      </c>
+      <c r="H84">
+        <v>36.465770346961349</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>36.905344605369621</v>
+      </c>
+      <c r="K84">
+        <v>36.032872508474377</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>39.839005842831277</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>0.85000000000000142</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.11764705882353088</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>36.640819811168228</v>
+      </c>
+      <c r="W84">
+        <v>37.266053220948216</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-0.62523340977998743</v>
+      </c>
+      <c r="Y84">
+        <v>-0.60578291814101826</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>36.4</v>
+      </c>
+      <c r="D85">
+        <v>37.6</v>
+      </c>
+      <c r="E85">
+        <v>36.4</v>
+      </c>
+      <c r="F85">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>37.06666666666667</v>
+      </c>
+      <c r="H85">
+        <v>36.766218506814013</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>37.059712470843039</v>
+      </c>
+      <c r="K85">
+        <v>36.114456395480069</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>61.476892668369651</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.80000000000000426</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.66666666666666863</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>36.726847532526961</v>
+      </c>
+      <c r="W85">
+        <v>37.261160389766864</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-0.53431285723990385</v>
+      </c>
+      <c r="Y85">
+        <v>-0.5914889059607954</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D86">
+        <v>38.9</v>
+      </c>
+      <c r="E86">
+        <v>37</v>
+      </c>
+      <c r="F86">
+        <v>38.15</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>38.016666666666673</v>
+      </c>
+      <c r="H86">
+        <v>37.391442586740339</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>37.468665255100142</v>
+      </c>
+      <c r="K86">
+        <v>36.311243863151162</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>72.251121748164252</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.1499999999999986</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.6052631578947365</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>36.945794065984352</v>
+      </c>
+      <c r="W86">
+        <v>37.327000360895248</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-0.3812062949108963</v>
+      </c>
+      <c r="Y86">
+        <v>-0.5494323837508156</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>38.25</v>
+      </c>
+      <c r="D87">
+        <v>38.75</v>
+      </c>
+      <c r="E87">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="F87">
+        <v>38.25</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>38.18333333333333</v>
+      </c>
+      <c r="H87">
+        <v>37.787387960036838</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>37.753406309522333</v>
+      </c>
+      <c r="K87">
+        <v>36.586523004673126</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>73.236043256489907</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.58333333333333437</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>37.146441132755989</v>
+      </c>
+      <c r="W87">
+        <v>37.395370704532638</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.24892957177664954</v>
+      </c>
+      <c r="Y87">
+        <v>-0.48933182135598241</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>38.4</v>
+      </c>
+      <c r="D88">
+        <v>41.6</v>
+      </c>
+      <c r="E88">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F88">
+        <v>41.15</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>40.31666666666667</v>
+      </c>
+      <c r="H88">
+        <v>39.052027313351758</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>38.608204907406261</v>
+      </c>
+      <c r="K88">
+        <v>36.9450734480791</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>88.295617699866128</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.9499999999999957</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>3.3999999999999986</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.86764705882352855</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>37.762373266178145</v>
+      </c>
+      <c r="W88">
+        <v>37.673491393085776</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>8.8881873092368835E-2</v>
+      </c>
+      <c r="Y88">
+        <v>-0.37368908246631216</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>38.6</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>39.5</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>40.300000000000004</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>41.2</v>
+      </c>
+      <c r="D89">
+        <v>42.3</v>
+      </c>
+      <c r="E89">
+        <v>40.5</v>
+      </c>
+      <c r="F89">
+        <v>41.1</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>41.300000000000004</v>
+      </c>
+      <c r="H89">
+        <v>40.176013656675877</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>39.428603816871536</v>
+      </c>
+      <c r="K89">
+        <v>37.735057126283742</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>87.237707885741486</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333465</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>38.275854302150741</v>
+      </c>
+      <c r="W89">
+        <v>37.927306845449792</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>0.348547456700949</v>
+      </c>
+      <c r="Y89">
+        <v>-0.22924177463285991</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>40.85</v>
+      </c>
+      <c r="D90">
+        <v>42.8</v>
+      </c>
+      <c r="E90">
+        <v>39.85</v>
+      </c>
+      <c r="F90">
+        <v>42.25</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>41.633333333333333</v>
+      </c>
+      <c r="H90">
+        <v>40.904673495004602</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>40.177802968677859</v>
+      </c>
+      <c r="K90">
+        <v>38.205044431554022</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>90.507543734121583</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>2.9499999999999957</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.81355932203389902</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>38.887261332589091</v>
+      </c>
+      <c r="W90">
+        <v>38.247506338379438</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.6397549942096532</v>
+      </c>
+      <c r="Y90">
+        <v>-5.5442420864357272E-2</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>41</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>41.35</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>41.650000000000006</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>42.5</v>
+      </c>
+      <c r="D91">
+        <v>43</v>
+      </c>
+      <c r="E91">
+        <v>41.5</v>
+      </c>
+      <c r="F91">
+        <v>41.7</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>42.06666666666667</v>
+      </c>
+      <c r="H91">
+        <v>41.485670080835632</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>40.804957864527225</v>
+      </c>
+      <c r="K91">
+        <v>38.93725678009757</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>78.485901885513869</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.13333333333333522</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>39.319990358344619</v>
+      </c>
+      <c r="W91">
+        <v>38.503246609610592</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>0.81674374873402655</v>
+      </c>
+      <c r="Y91">
+        <v>0.1189948130553195</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>42</v>
+      </c>
+      <c r="D92">
+        <v>42.2</v>
+      </c>
+      <c r="E92">
+        <v>41</v>
+      </c>
+      <c r="F92">
+        <v>41.4</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>41.533333333333331</v>
+      </c>
+      <c r="H92">
+        <v>41.509501707084482</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>41.114967227965622</v>
+      </c>
+      <c r="K92">
+        <v>39.395644162298112</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>71.968286241472342</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333137</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>39.639991841676213</v>
+      </c>
+      <c r="W92">
+        <v>38.717820934824623</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>0.92217090685159064</v>
+      </c>
+      <c r="Y92">
+        <v>0.27963003181457374</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>41.7</v>
+      </c>
+      <c r="D93">
+        <v>42.3</v>
+      </c>
+      <c r="E93">
+        <v>41.35</v>
+      </c>
+      <c r="F93">
+        <v>41.7</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>41.783333333333339</v>
+      </c>
+      <c r="H93">
+        <v>41.646417520208914</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>41.378307843973261</v>
+      </c>
+      <c r="K93">
+        <v>39.829945459565195</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>74.60440789539831</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>0.94999999999999574</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.36842105263158209</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>39.956916173726029</v>
+      </c>
+      <c r="W93">
+        <v>38.938723087800575</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.0181930859254535</v>
+      </c>
+      <c r="Y93">
+        <v>0.4273426426367497</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>41.7</v>
+      </c>
+      <c r="D94">
+        <v>42</v>
+      </c>
+      <c r="E94">
+        <v>41.25</v>
+      </c>
+      <c r="F94">
+        <v>42</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>41.75</v>
+      </c>
+      <c r="H94">
+        <v>41.698208760104457</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>41.516461656423644</v>
+      </c>
+      <c r="K94">
+        <v>40.145513135217371</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>77.275672179910089</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>0.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>40.271236762383566</v>
+      </c>
+      <c r="W94">
+        <v>39.165484340556091</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>1.105752421827475</v>
+      </c>
+      <c r="Y94">
+        <v>0.56302459847489472</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>41.35</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>41.550000000000004</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>41.650000000000006</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>41.7</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>42</v>
+      </c>
+      <c r="D95">
+        <v>44</v>
+      </c>
+      <c r="E95">
+        <v>41.7</v>
+      </c>
+      <c r="F95">
+        <v>43.1</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>42.933333333333337</v>
+      </c>
+      <c r="H95">
+        <v>42.315771046718893</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>42.068359066107277</v>
+      </c>
+      <c r="K95">
+        <v>40.490954660724626</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>84.667512508357532</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.60869565217391319</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>40.706431106632252</v>
+      </c>
+      <c r="W95">
+        <v>39.456929944959342</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>1.2495011616729101</v>
+      </c>
+      <c r="Y95">
+        <v>0.70031991111449776</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>42.75</v>
+      </c>
+      <c r="D96">
+        <v>43.6</v>
+      </c>
+      <c r="E96">
+        <v>42.35</v>
+      </c>
+      <c r="F96">
+        <v>43</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>42.983333333333327</v>
+      </c>
+      <c r="H96">
+        <v>42.649552190026114</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>42.408723718083436</v>
+      </c>
+      <c r="K96">
+        <v>40.904075847230267</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>81.649423914340602</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.64999999999999858</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.51999999999999891</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>41.05928785945806</v>
+      </c>
+      <c r="W96">
+        <v>39.719379578666057</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>1.3399082807920024</v>
+      </c>
+      <c r="Y96">
+        <v>0.82823758504999867</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>42.95</v>
+      </c>
+      <c r="D97">
+        <v>43.05</v>
+      </c>
+      <c r="E97">
+        <v>42.15</v>
+      </c>
+      <c r="F97">
+        <v>42.4</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>42.533333333333331</v>
+      </c>
+      <c r="H97">
+        <v>42.591442761679723</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>42.551229558509341</v>
+      </c>
+      <c r="K97">
+        <v>41.180947881179094</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>64.425432836160653</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.27777777777777823</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>41.265551265695279</v>
+      </c>
+      <c r="W97">
+        <v>39.917944054320422</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>1.3476072113748572</v>
+      </c>
+      <c r="Y97">
+        <v>0.93211151031497042</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>42.8</v>
+      </c>
+      <c r="D98">
+        <v>44.1</v>
+      </c>
+      <c r="E98">
+        <v>42.55</v>
+      </c>
+      <c r="F98">
+        <v>43.6</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>43.416666666666664</v>
+      </c>
+      <c r="H98">
+        <v>43.004054714173193</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>42.895400767729491</v>
+      </c>
+      <c r="K98">
+        <v>41.485181685361518</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>76.708709388102235</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000043</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>1.5500000000000043</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.67741935483871052</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>41.62469722481908</v>
+      </c>
+      <c r="W98">
+        <v>40.190688939185577</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>1.434008285633503</v>
+      </c>
+      <c r="Y98">
+        <v>1.0324908653786768</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>43.9</v>
+      </c>
+      <c r="D99">
+        <v>44.4</v>
+      </c>
+      <c r="E99">
+        <v>43.15</v>
+      </c>
+      <c r="F99">
+        <v>43.9</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>43.816666666666663</v>
+      </c>
+      <c r="H99">
+        <v>43.410360690419928</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>43.22975615267849</v>
+      </c>
+      <c r="K99">
+        <v>41.855141310836736</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>78.977097219024557</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.6</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>41.974743805616143</v>
+      </c>
+      <c r="W99">
+        <v>40.465452721468125</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>1.5092910841480176</v>
+      </c>
+      <c r="Y99">
+        <v>1.127850909132545</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>43.9</v>
+      </c>
+      <c r="D100">
+        <v>44.25</v>
+      </c>
+      <c r="E100">
+        <v>43.05</v>
+      </c>
+      <c r="F100">
+        <v>43.45</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>43.583333333333336</v>
+      </c>
+      <c r="H100">
+        <v>43.496847011876632</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>43.456477007638824</v>
+      </c>
+      <c r="K100">
+        <v>42.120665463984125</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>66.782019446153527</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333726</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>42.201706297059815</v>
+      </c>
+      <c r="W100">
+        <v>40.686530297655672</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>1.5151759994041427</v>
+      </c>
+      <c r="Y100">
+        <v>1.2053159271868645</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>43.5</v>
+      </c>
+      <c r="D101">
+        <v>43.65</v>
+      </c>
+      <c r="E101">
+        <v>41.8</v>
+      </c>
+      <c r="F101">
+        <v>42.4</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>42.616666666666667</v>
+      </c>
+      <c r="H101">
+        <v>43.05675683927165</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>43.499482117052416</v>
+      </c>
+      <c r="K101">
+        <v>42.049406471987652</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>46.044791021620775</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>1.8500000000000014</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.32432432432432484</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>42.232213020589072</v>
+      </c>
+      <c r="W101">
+        <v>40.813453979310808</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>1.418759041278264</v>
+      </c>
+      <c r="Y101">
+        <v>1.2480045500051444</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>41.9</v>
+      </c>
+      <c r="D102">
+        <v>42</v>
+      </c>
+      <c r="E102">
+        <v>39.9</v>
+      </c>
+      <c r="F102">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="H102">
+        <v>41.878378419635823</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>43.166263868818547</v>
+      </c>
+      <c r="K102">
+        <v>41.571760589323731</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.393239965692672</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.30000000000000426</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>2.1000000000000014</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.14285714285714479</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>41.919564863575367</v>
+      </c>
+      <c r="W102">
+        <v>40.768012943806305</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>1.1515519197690622</v>
+      </c>
+      <c r="Y102">
+        <v>1.2287140239579279</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D103">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E103">
+        <v>38.35</v>
+      </c>
+      <c r="F103">
+        <v>39.1</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>39.25</v>
+      </c>
+      <c r="H103">
+        <v>40.564189209817911</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>42.529316342414425</v>
+      </c>
+      <c r="K103">
+        <v>40.855813791696235</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>19.833529323639929</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>1.9499999999999957</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.38461538461538547</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>41.485785653794544</v>
+      </c>
+      <c r="W103">
+        <v>40.64445642945028</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>0.84132922434426405</v>
+      </c>
+      <c r="Y103">
+        <v>1.1512370640351952</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>39.25</v>
+      </c>
+      <c r="D104">
+        <v>39.65</v>
+      </c>
+      <c r="E104">
+        <v>38.6</v>
+      </c>
+      <c r="F104">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>39.15</v>
+      </c>
+      <c r="H104">
+        <v>39.857094604908951</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>41.889468266322332</v>
+      </c>
+      <c r="K104">
+        <v>40.354521837985963</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>21.779656070007341</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.57142857142857428</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>41.134126322441539</v>
+      </c>
+      <c r="W104">
+        <v>40.537459656898406</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>0.59666666554313252</v>
+      </c>
+      <c r="Y104">
+        <v>1.0403229843367827</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>39.9</v>
+      </c>
+      <c r="D105">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="E105">
+        <v>38.35</v>
+      </c>
+      <c r="F105">
+        <v>38.5</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>38.933333333333337</v>
+      </c>
+      <c r="H105">
+        <v>39.395213969121144</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>41.458475318250706</v>
+      </c>
+      <c r="K105">
+        <v>39.90907254065575</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>17.963853365206532</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>1.6000000000000014</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>9.3749999999999029E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>40.728876118988993</v>
+      </c>
+      <c r="W105">
+        <v>40.386536719350374</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>0.34233939963861815</v>
+      </c>
+      <c r="Y105">
+        <v>0.90072626739714978</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>39.75</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>39.35</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>39.150000000000006</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>38.950000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>38.75</v>
+      </c>
+      <c r="D106">
+        <v>39.25</v>
+      </c>
+      <c r="E106">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F106">
+        <v>38.9</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>38.816666666666663</v>
+      </c>
+      <c r="H106">
+        <v>39.105940317893904</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>40.967703025306108</v>
+      </c>
+      <c r="K106">
+        <v>39.55150086495447</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>27.08825419994233</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.63157894736842068</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>40.447510562221453</v>
+      </c>
+      <c r="W106">
+        <v>40.276422888287385</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>0.17108767393406765</v>
+      </c>
+      <c r="Y106">
+        <v>0.75479854870453333</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="D107">
+        <v>39.35</v>
+      </c>
+      <c r="E107">
+        <v>38.65</v>
+      </c>
+      <c r="F107">
+        <v>38.75</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>38.916666666666664</v>
+      </c>
+      <c r="H107">
+        <v>39.011303492280284</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>40.608213464126976</v>
+      </c>
+      <c r="K107">
+        <v>39.351167339409031</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>25.745954829262629</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.14285714285714432</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>40.186355091110457</v>
+      </c>
+      <c r="W107">
+        <v>40.163354526192023</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>2.3000564918433497E-2</v>
+      </c>
+      <c r="Y107">
+        <v>0.60843895194731334</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>39.25</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>39.1</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>39</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>38.900000000000006</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
